--- a/medicine/Handicap/Seiichi_Miyake/Seiichi_Miyake.xlsx
+++ b/medicine/Handicap/Seiichi_Miyake/Seiichi_Miyake.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Seiichi Miyake (en japonais : 三宅精一), né le 5 février 1926 et mort en 1982, est un inventeur japonais. Il est connu pour avoir conçu les surfaces podotactiles, qui aident les piétons malvoyants à se déplacer.
 </t>
@@ -511,9 +523,11 @@
           <t>Création</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1965, Miyake utilise ses propres fonds pour concevoir les briques tactiles[1]. Les surfaces ont deux types : une avec des points et l'autre avec des lignes verticales. Les points indiquent aux piétons qu'il faut faire attention, tandis que les barres verticales signifient qu'il est possible de continuer à avancer. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1965, Miyake utilise ses propres fonds pour concevoir les briques tactiles. Les surfaces ont deux types : une avec des points et l'autre avec des lignes verticales. Les points indiquent aux piétons qu'il faut faire attention, tandis que les barres verticales signifient qu'il est possible de continuer à avancer. 
 Deux ans plus tard, le 18 mars 1967, la ville d'Okayama est la première à installer cette invention pour les malvoyants.
 10 ans plus tard, le système devient obligatoire dans les gares de la compagnie ferroviaire Japanese National Railways.
 </t>
@@ -544,9 +558,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 18 mars 2019, un Google Doodle lui rend hommage[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 18 mars 2019, un Google Doodle lui rend hommage,.
 </t>
         </is>
       </c>
